--- a/app/seeds/libgss_test.xlsx
+++ b/app/seeds/libgss_test.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="1940" windowWidth="20620" windowHeight="15320" tabRatio="927" activeTab="1"/>
+    <workbookView xWindow="25380" yWindow="320" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="conditionsテスト" sheetId="20" r:id="rId1"/>
     <sheet name="dictionaryテスト1" sheetId="23" r:id="rId2"/>
     <sheet name="dictionaryテスト2" sheetId="22" r:id="rId3"/>
+    <sheet name="共有コメント履歴" sheetId="24" r:id="rId4"/>
+    <sheet name="購入トランザクション" sheetId="25" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t>マスタ</t>
   </si>
@@ -330,14 +332,202 @@
   </si>
   <si>
     <t>output5</t>
+  </si>
+  <si>
+    <t>汎用トランザクション</t>
+    <rPh sb="0" eb="2">
+      <t>ハンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレクションオプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有コメント履歴</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SharedCommentHistory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてきた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おつかれー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むりぽ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひさしぶりー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態コード</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PurchaseTransaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入トランザクション</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態コード(1: 購入開始, 2: レシートデータ受信完了, 3: レシートデータ問い合わせ完了, 4: ゲームデータ反映完了)</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>コウニュウカイシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> { "capped" : true, "size" : 5242880, "max" : 5000 }</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -420,7 +610,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -458,8 +648,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -468,8 +700,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="79">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -488,6 +723,27 @@
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -507,10 +763,117 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1480820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1778000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4630420" y="88900"/>
+          <a:ext cx="3319780" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69035"/>
+            <a:gd name="adj2" fmla="val 48007"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="0" cap="none" spc="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>capped: true </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="0" cap="none" spc="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>を指定しているので、主キーやインデックスは設定できません。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,7 +1201,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1027,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1381,4 +1744,477 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="8">
+        <v>41110.541666666664</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="8">
+        <v>41110.5625</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="8">
+        <v>41110.75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="8">
+        <v>41120.375</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>10021</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8">
+        <v>41110.541666666664</v>
+      </c>
+      <c r="F17" s="8">
+        <v>41110.544444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="10">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10021</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>41110.5625</v>
+      </c>
+      <c r="F18" s="8">
+        <v>41110.543055555558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10021</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8">
+        <v>41110.75</v>
+      </c>
+      <c r="F19" s="8">
+        <v>41110.750694444447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>10025</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>41120.375</v>
+      </c>
+      <c r="F20" s="8">
+        <v>41120.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/seeds/libgss_test.xlsx
+++ b/app/seeds/libgss_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25380" yWindow="320" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="4"/>
+    <workbookView xWindow="22080" yWindow="2400" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="conditionsテスト" sheetId="20" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
   <si>
     <t>マスタ</t>
   </si>
@@ -486,38 +486,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>状態コード(1: 購入開始, 2: レシートデータ受信完了, 3: レシートデータ問い合わせ完了, 4: ゲームデータ反映完了)</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>コウニュウカイシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> { "capped" : true, "size" : 5242880, "max" : 5000 }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1: 購入開始, 2: レシートデータ受信完了, 3: レシートデータ問い合わせ完了, 4: ゲームデータ反映完了)</t>
+  </si>
+  <si>
+    <t># 備考</t>
+    <rPh sb="2" eb="4">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態コード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1799,7 +1782,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1947,7 +1930,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2011,6 +1994,9 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -2026,6 +2012,7 @@
       <c r="E8" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
@@ -2039,7 +2026,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2056,6 +2046,7 @@
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -2071,6 +2062,7 @@
       <c r="E11" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
@@ -2086,6 +2078,7 @@
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
@@ -2101,6 +2094,7 @@
       <c r="E13" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
@@ -2112,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>88</v>

--- a/app/seeds/libgss_test.xlsx
+++ b/app/seeds/libgss_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="2400" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="4"/>
+    <workbookView xWindow="22080" yWindow="2400" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="conditionsテスト" sheetId="20" r:id="rId1"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コレクションオプション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>共有コメント履歴</t>
     <rPh sb="0" eb="2">
       <t>キョウユウ</t>
@@ -501,6 +497,13 @@
   </si>
   <si>
     <t>状態コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成オプション</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -593,8 +596,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -687,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="83">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -727,6 +734,8 @@
     <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -767,6 +776,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1733,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1766,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1774,15 +1785,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1809,7 +1820,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
@@ -1819,37 +1830,37 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1859,57 +1870,57 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="8">
         <v>41110.541666666664</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="8">
         <v>41110.5625</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8">
         <v>41110.75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="8">
         <v>41120.375</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1962,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1970,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1995,12 +2006,12 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -2010,13 +2021,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
@@ -2026,15 +2037,15 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -2044,13 +2055,13 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="19" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
@@ -2060,39 +2071,39 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -2103,27 +2114,27 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="10">
         <v>4</v>
@@ -2143,7 +2154,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="10">
         <v>3</v>
@@ -2163,7 +2174,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>
@@ -2183,7 +2194,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="10">
         <v>1</v>

--- a/app/seeds/libgss_test.xlsx
+++ b/app/seeds/libgss_test.xlsx
@@ -500,9 +500,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生成オプション</t>
+    <t>作成オプション</t>
     <rPh sb="0" eb="2">
-      <t>セイセイ</t>
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/app/seeds/libgss_test.xlsx
+++ b/app/seeds/libgss_test.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="2400" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="3"/>
+    <workbookView xWindow="9960" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="conditionsテスト" sheetId="20" r:id="rId1"/>
     <sheet name="dictionaryテスト1" sheetId="23" r:id="rId2"/>
     <sheet name="dictionaryテスト2" sheetId="22" r:id="rId3"/>
-    <sheet name="共有コメント履歴" sheetId="24" r:id="rId4"/>
-    <sheet name="購入トランザクション" sheetId="25" r:id="rId5"/>
+    <sheet name="dictionaryテスト3" sheetId="26" r:id="rId4"/>
+    <sheet name="共有コメント履歴" sheetId="24" r:id="rId5"/>
+    <sheet name="購入トランザクション" sheetId="25" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
   <si>
     <t>マスタ</t>
   </si>
@@ -503,6 +504,27 @@
     <t>作成オプション</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DictionaryTest3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+    <rPh sb="0" eb="6">
+      <t>デフォルt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞書テスト用3</t>
+    <rPh sb="0" eb="2">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -596,8 +618,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -694,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="85">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -736,6 +760,7 @@
     <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -778,6 +803,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1742,9 +1768,197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3">
+        <v>20001</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20002</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20003</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3">
+        <v>20004</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3">
+        <v>20005</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1936,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>

--- a/app/seeds/libgss_test.xlsx
+++ b/app/seeds/libgss_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="3"/>
+    <workbookView xWindow="8260" yWindow="0" windowWidth="29620" windowHeight="25960" tabRatio="927" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="conditionsテスト" sheetId="20" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="dictionaryテスト3" sheetId="26" r:id="rId4"/>
     <sheet name="共有コメント履歴" sheetId="24" r:id="rId5"/>
     <sheet name="購入トランザクション" sheetId="25" r:id="rId6"/>
+    <sheet name="数値テスト1" sheetId="27" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="137">
   <si>
     <t>マスタ</t>
   </si>
@@ -526,6 +527,194 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値テスト1</t>
+  </si>
+  <si>
+    <t>NumberTest1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実数値</t>
+    <rPh sb="0" eb="3">
+      <t>ジッスウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>real1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数値1</t>
+    <rPh sb="0" eb="3">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実数値1</t>
+    <rPh sb="0" eb="3">
+      <t>ジッスウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>row_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行番号</t>
+    <rPh sb="0" eb="3">
+      <t>ギョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"a": 0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"a": 1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#備考</t>
+    <rPh sb="1" eb="3">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 ** 32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"a": 4294967296}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2 ** 63 -1) セルの書式は[数値]</t>
+    <rPh sb="16" eb="18">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列1</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1,1,1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"a": 9223372036854775807}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># セルの書式</t>
+    <rPh sb="5" eb="7">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0,0,0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ {"a":0} , {"a":0} ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ {"a":1} , {"a":1} ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4294967296, 4294967296, 4294967296]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ {"a":4294967296} , {"a":4294967296} ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[9223372036854775807, 9223372036854775807, 9223372036854775807]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ {"a":9223372036854775807} , {"a":9223372036854775807} ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"a": [0] }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"a": [1] }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"a":[ 4294967296] }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"a": [9223372036854775807] }</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,9 +722,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -618,7 +808,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -704,8 +894,104 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -717,8 +1003,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="181">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -761,6 +1048,54 @@
     <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -804,6 +1139,54 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1221,7 +1604,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1770,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1831,9 +2214,7 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2536,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2436,4 +2817,487 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4294967296</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4294967296</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4294967296</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.2233720368547697E+18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.2233720368547697E+18</v>
+      </c>
+      <c r="D20" s="3">
+        <v>9.2233720368547697E+18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>99999999999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>99999999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>99999999999</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5">
+        <v>8</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>9</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4294967296</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4294967296</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4294967296</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>10</v>
+      </c>
+      <c r="B26" s="7">
+        <v>9.2233720368547697E+18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9.2233720368547697E+18</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9.2233720368547697E+18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11">
+        <v>99999999999</v>
+      </c>
+      <c r="C27" s="11">
+        <v>99999999999</v>
+      </c>
+      <c r="D27" s="11">
+        <v>99999999999</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5">
+        <v>12</v>
+      </c>
+      <c r="B28" s="11">
+        <v>100000000000</v>
+      </c>
+      <c r="C28" s="11">
+        <v>100000000000</v>
+      </c>
+      <c r="D28" s="11">
+        <v>100000000000</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/seeds/libgss_test.xlsx
+++ b/app/seeds/libgss_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="0" windowWidth="29620" windowHeight="25960" tabRatio="927" activeTab="6"/>
+    <workbookView xWindow="16680" yWindow="1180" windowWidth="29620" windowHeight="25960" tabRatio="927" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="conditionsテスト" sheetId="20" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="138">
   <si>
     <t>マスタ</t>
   </si>
@@ -715,6 +715,13 @@
   </si>
   <si>
     <t>{"a": [9223372036854775807] }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2154,7 +2161,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2214,7 +2221,9 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2824,7 +2833,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/app/seeds/libgss_test.xlsx
+++ b/app/seeds/libgss_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="1180" windowWidth="29620" windowHeight="25960" tabRatio="927" activeTab="6"/>
+    <workbookView xWindow="4460" yWindow="1620" windowWidth="29620" windowHeight="25960" tabRatio="927" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="conditionsテスト" sheetId="20" r:id="rId1"/>
@@ -815,8 +815,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1012,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="183">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1103,6 +1105,7 @@
     <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1194,6 +1197,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="182" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1611,7 +1615,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2833,7 +2837,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2858,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
